--- a/CumRetResults.xlsx
+++ b/CumRetResults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.fang\OneDrive - IHS Markit\ResearchSignals\Projects\20200213_StockClustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17743DF9-BD5D-4C57-9D12-35E6DE6E7D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{17743DF9-BD5D-4C57-9D12-35E6DE6E7D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D22DEFB9-1EF5-4519-9CFA-FD674C9BDF40}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Month</t>
   </si>
@@ -101,6 +101,9 @@
   <si>
     <t>CS Cum Ret</t>
   </si>
+  <si>
+    <t>SharpeR</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -178,6 +181,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,6 +197,1503 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10679136139268802"/>
+          <c:y val="0.12038880911429133"/>
+          <c:w val="0.78756069743889356"/>
+          <c:h val="0.53164891462715635"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CS Cum Ret</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12/1/2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0398000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99860936280000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98256270894916686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98891694198794111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94332589312841308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9679202858140572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95851790815765947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88799399454705152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97348472837807432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95637962821574318</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91193666689255759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0115575403205674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C24-4534-86EC-1D47B0F9F175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CS Cum Ret</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12/1/2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0494000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0137844134000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0070589676015047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0139049544632599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95071636989120067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98291047832482636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99032358915235219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92487904508680807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99011631341105111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98345382073810816</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.980642126264618</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0539833702458226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C24-4534-86EC-1D47B0F9F175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CS Cum Ret</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11/1/2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12/1/2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98359417905099999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97294120491971947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0062388333757064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98647887865962092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0101503765079933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99047638473001065</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94178499156152873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.005590736382824</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98067851304508213</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97477797637457764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0609737522001546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C24-4534-86EC-1D47B0F9F175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="128028672"/>
+        <c:axId val="128030208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="128028672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="7F8080"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128030208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128030208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:srgbClr val="7F8080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="7F8080"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128028672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2724703222159412"/>
+          <c:y val="0.85789321425002241"/>
+          <c:w val="0.47873223450234353"/>
+          <c:h val="5.7404467728107131E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="19050" cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="7F8080"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Content Placeholder 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62110F39-F316-47E7-BB56-84EE0A064867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22224</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>290977</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1580</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75022687-7DBA-41A1-A065-1D8EBD4BB071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="631824" y="2678111"/>
+          <a:ext cx="11232028" cy="4752969"/>
+          <a:chOff x="467430" y="836635"/>
+          <a:chExt cx="8209026" cy="5329214"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="txtboxInfographicTitleBar">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB431BE0-52E0-47E3-A9EA-D659B33D0F80}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="467430" y="836635"/>
+            <a:ext cx="8208912" cy="403646"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7F8080"/>
+          </a:solidFill>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="72000" tIns="36000" rIns="72000" bIns="36000" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Cumulative Return of Three Book-to-Market Factor Strategies</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="txtboxInfographicBorder">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604AE401-1980-4A30-989E-9AC9DBB9C4D7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="467544" y="838200"/>
+            <a:ext cx="8208912" cy="5327649"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="7F8080"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1400" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>4.62868E-6</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.07575</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="txtboxChartTitle"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="22"/>
+          <a:ext cx="8220075" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="7F8080"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="72000" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" dirty="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>16-pt - IHS Markit </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" dirty="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>column and line, 2020</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.90915</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="txtBoxSourceLine"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="4321175"/>
+          <a:ext cx="8220075" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" lIns="73152" bIns="73152" rtlCol="0" anchor="b"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" dirty="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Source: Tao of Value</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54023</cdr:x>
+      <cdr:y>0.93293</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="txtboxCopyrightLine"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1727999" y="2784236"/>
+          <a:ext cx="1440000" cy="200164"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="73152" rIns="73152" bIns="73152" rtlCol="0" anchor="b"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Tahoma"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" dirty="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.12124</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.045</cdr:x>
+      <cdr:y>0.65164</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="txtBoxPrimaryYAxisLabel"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-1075531" y="1651791"/>
+          <a:ext cx="2520951" cy="369889"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="horz" wrap="square" lIns="72000" tIns="72000" rIns="72000" bIns="72000" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" dirty="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Cumulative Return of $1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" dirty="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10641</cdr:x>
+      <cdr:y>0.72745</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89603</cdr:x>
+      <cdr:y>0.80294</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="txtBoxPrimaryXAxisLabel"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="874712" y="3457574"/>
+          <a:ext cx="6490689" cy="358775"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="horz" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" dirty="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.95611</cdr:x>
+      <cdr:y>0.12124</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.65164</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="txtBoxSecondaryYAxisLabel"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="6779222" y="1656360"/>
+          <a:ext cx="2520951" cy="360754"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="horz" wrap="square" lIns="72000" tIns="72000" rIns="72000" bIns="72000" rtlCol="0" anchor="b">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" dirty="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,12 +1957,253 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:fontScheme name="Office Classic 2">
+    <a:majorFont>
+      <a:latin typeface="Arial"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="굴림"/>
+      <a:font script="Hans" typeface="黑体"/>
+      <a:font script="Hant" typeface="微軟正黑體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Cordia New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Arial"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="굴림"/>
+      <a:font script="Hans" typeface="黑体"/>
+      <a:font script="Hant" typeface="微軟正黑體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Cordia New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,340 +2242,387 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>-3.9613999999999998</v>
-      </c>
-      <c r="C2" s="6">
-        <v>-3.3938999999999999</v>
-      </c>
-      <c r="D2" s="6">
-        <v>-2.4115310000000001</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
+      <c r="A2" s="7">
+        <v>43466</v>
+      </c>
+      <c r="B2">
+        <v>3.98</v>
+      </c>
+      <c r="C2">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.79</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43466</v>
       </c>
       <c r="G2" s="6">
         <f>1+B2/100</f>
-        <v>0.96038599999999996</v>
+        <v>1.0398000000000001</v>
       </c>
       <c r="H2" s="6">
         <f t="shared" ref="H2:I2" si="0">1+C2/100</f>
-        <v>0.96606100000000006</v>
+        <v>1.0494000000000001</v>
       </c>
       <c r="I2" s="6">
         <f t="shared" si="0"/>
-        <v>0.97588469</v>
+        <v>1.0079</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>-1.6069</v>
+        <v>-3.9613999999999998</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.66339999999999999</v>
+        <v>-3.3938999999999999</v>
       </c>
       <c r="D3" s="6">
-        <v>-1.0830660000000001</v>
+        <v>-2.4115310000000001</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="6">
-        <f>G2*(1+B3/100)</f>
-        <v>0.94495355736599995</v>
+        <f t="shared" ref="G3:I4" si="1">G2*(1+B3/100)</f>
+        <v>0.99860936280000001</v>
       </c>
       <c r="H3" s="6">
-        <f>H2*(1+C3/100)</f>
-        <v>0.95965215132600001</v>
+        <f t="shared" si="1"/>
+        <v>1.0137844134000003</v>
       </c>
       <c r="I3" s="6">
-        <f>I2*(1+D3/100)</f>
-        <v>0.96531521472340465</v>
+        <f t="shared" si="1"/>
+        <v>0.98359417905099999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0.64670000000000005</v>
+        <v>-1.6069</v>
       </c>
       <c r="C4" s="6">
-        <v>0.67979999999999996</v>
+        <v>-0.66339999999999999</v>
       </c>
       <c r="D4" s="6">
-        <v>3.4223680000000001</v>
+        <v>-1.0830660000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" ref="G4:G12" si="1">G3*(1+B4/100)</f>
-        <v>0.95106457202148587</v>
+        <f t="shared" si="1"/>
+        <v>0.98256270894916686</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:I12" si="2">H3*(1+C4/100)</f>
-        <v>0.9661758666507142</v>
+        <f t="shared" si="1"/>
+        <v>1.0070589676015047</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="2"/>
-        <v>0.9983518537312297</v>
+        <f t="shared" si="1"/>
+        <v>0.97294120491971947</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>-4.6101999999999999</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="C5" s="6">
-        <v>-6.2321999999999997</v>
+        <v>0.67979999999999996</v>
       </c>
       <c r="D5" s="6">
-        <v>-1.9637439999999999</v>
+        <v>3.4223680000000001</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>0.90721859312215136</v>
+        <f t="shared" ref="G5:G13" si="2">G4*(1+B5/100)</f>
+        <v>0.98891694198794111</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="2"/>
-        <v>0.90596185428930842</v>
+        <f t="shared" ref="H5:I13" si="3">H4*(1+C5/100)</f>
+        <v>1.0139049544632599</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="2"/>
-        <v>0.97874677910469388</v>
+        <f t="shared" si="3"/>
+        <v>1.0062388333757064</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>2.6072000000000002</v>
+        <v>-4.6101999999999999</v>
       </c>
       <c r="C6" s="6">
-        <v>3.3862999999999999</v>
+        <v>-6.2321999999999997</v>
       </c>
       <c r="D6" s="6">
-        <v>2.3995950000000001</v>
+        <v>-1.9637439999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>0.9308715962820322</v>
+        <f t="shared" si="2"/>
+        <v>0.94332589312841308</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="2"/>
-        <v>0.93664044056110729</v>
+        <f t="shared" si="3"/>
+        <v>0.95071636989120067</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="2"/>
-        <v>1.0022327378787512</v>
+        <f t="shared" si="3"/>
+        <v>0.98647887865962092</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>-0.97140000000000004</v>
+        <v>2.6072000000000002</v>
       </c>
       <c r="C7" s="6">
-        <v>0.75419999999999998</v>
+        <v>3.3862999999999999</v>
       </c>
       <c r="D7" s="6">
-        <v>-1.94763</v>
+        <v>2.3995950000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>0.92182910959574849</v>
+        <f t="shared" si="2"/>
+        <v>0.9679202858140572</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="2"/>
-        <v>0.94370458276381908</v>
+        <f t="shared" si="3"/>
+        <v>0.98291047832482636</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="2"/>
-        <v>0.98271295240600331</v>
+        <f t="shared" si="3"/>
+        <v>1.0101503765079933</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>-7.3575999999999997</v>
+        <v>-0.97140000000000004</v>
       </c>
       <c r="C8" s="6">
-        <v>-6.6083999999999996</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="D8" s="6">
-        <v>-4.9159569999999997</v>
+        <v>-1.94763</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>0.85400461102813174</v>
+        <f t="shared" si="2"/>
+        <v>0.95851790815765947</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="2"/>
-        <v>0.88134080911645485</v>
+        <f t="shared" si="3"/>
+        <v>0.99032358915235219</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="2"/>
-        <v>0.93440320623229367</v>
+        <f t="shared" si="3"/>
+        <v>0.99047638473001065</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>9.6273999999999997</v>
+        <v>-7.3575999999999997</v>
       </c>
       <c r="C9" s="6">
-        <v>7.0536000000000003</v>
+        <v>-6.6083999999999996</v>
       </c>
       <c r="D9" s="6">
-        <v>6.7749800000000002</v>
+        <v>-4.9159569999999997</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>0.93622305095025404</v>
+        <f t="shared" si="2"/>
+        <v>0.88799399454705152</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="2"/>
-        <v>0.94350706442829302</v>
+        <f t="shared" si="3"/>
+        <v>0.92487904508680807</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="2"/>
-        <v>0.99770883657389042</v>
+        <f t="shared" si="3"/>
+        <v>0.94178499156152873</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>-1.7571000000000001</v>
+        <v>9.6273999999999997</v>
       </c>
       <c r="C10" s="6">
-        <v>-0.67290000000000005</v>
+        <v>7.0536000000000003</v>
       </c>
       <c r="D10" s="6">
-        <v>-2.4773719999999999</v>
+        <v>6.7749800000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>0.91977267572200716</v>
+        <f t="shared" si="2"/>
+        <v>0.97348472837807432</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="2"/>
-        <v>0.93715820539175509</v>
+        <f t="shared" si="3"/>
+        <v>0.99011631341105111</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="2"/>
-        <v>0.97299187721508307</v>
+        <f t="shared" si="3"/>
+        <v>1.005590736382824</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>-4.6470000000000002</v>
+        <v>-1.7571000000000001</v>
       </c>
       <c r="C11" s="6">
-        <v>-0.28589999999999999</v>
+        <v>-0.67290000000000005</v>
       </c>
       <c r="D11" s="6">
-        <v>-0.60167899999999996</v>
+        <v>-2.4773719999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>0.87703083948120553</v>
+        <f t="shared" si="2"/>
+        <v>0.95637962821574318</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="2"/>
-        <v>0.93447887008254016</v>
+        <f t="shared" si="3"/>
+        <v>0.98345382073810816</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="2"/>
-        <v>0.96713758941817418</v>
+        <f t="shared" si="3"/>
+        <v>0.98067851304508213</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-4.6470000000000002</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-0.28589999999999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-0.60167899999999996</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.91193666689255759</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.980642126264618</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.97477797637457764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="6">
         <v>10.924099999999999</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>7.4789000000000003</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>8.842606</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>0.97283856541697178</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>1.0043676102971433</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="2"/>
-        <v>1.052657755928321</v>
+        <v>1.0115575403205674</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0539833702458226</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0609737522001546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>_xlfn.STDEV.P(B2:B13)*SQRT(12)</f>
+        <v>18.806364450277638</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:D14" si="4">_xlfn.STDEV.P(C2:C13)*SQRT(12)</f>
+        <v>15.30167638950604</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>13.550096043424821</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB652965-C606-4FD3-AD0B-BACCE9291794}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L14"/>
+      <selection activeCell="L4" sqref="L4:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -887,583 +2676,658 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>43496</v>
+        <v>43467</v>
       </c>
       <c r="B3" s="3">
-        <v>2.7687569999999999</v>
+        <v>12.0951485793892</v>
       </c>
       <c r="C3" s="3">
-        <v>3.9026869999999998</v>
+        <v>11.8085606176585</v>
       </c>
       <c r="D3" s="3">
-        <v>2.567097</v>
+        <v>10.1119554470854</v>
       </c>
       <c r="E3" s="3">
-        <v>2.9879579999999999</v>
+        <v>12.008148593627601</v>
       </c>
       <c r="F3" s="3">
-        <v>4.2886980000000001</v>
+        <v>11.225571260601599</v>
       </c>
       <c r="G3" s="3">
-        <v>4.4371049999999999</v>
+        <v>11.2239400148119</v>
       </c>
       <c r="H3" s="3">
-        <v>5.736281</v>
+        <v>11.117754629587299</v>
       </c>
       <c r="I3" s="3">
-        <v>3.2703509999999998</v>
+        <v>11.1427563554619</v>
       </c>
       <c r="J3" s="3">
-        <v>4.953551</v>
+        <v>12.259141160536799</v>
       </c>
       <c r="K3" s="3">
-        <v>5.180288</v>
+        <v>11.3068350672536</v>
       </c>
       <c r="L3" s="3">
-        <v>-2.4115310000000001</v>
+        <v>0.78831351213563505</v>
       </c>
       <c r="M3" s="3">
-        <v>1.0276879999999999</v>
+        <v>1.12095148579389</v>
       </c>
       <c r="N3" s="3">
-        <v>1.051803</v>
+        <v>1.1130683506725301</v>
       </c>
       <c r="O3" s="3">
-        <v>0.975885</v>
+        <v>1.00788313512135</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="B4" s="5">
-        <v>-1.485247</v>
+        <v>2.72363042727789</v>
       </c>
       <c r="C4" s="5">
-        <v>-0.65045699999999995</v>
+        <v>4.0083798101800303</v>
       </c>
       <c r="D4" s="5">
-        <v>-0.322571</v>
+        <v>2.4747999263703599</v>
       </c>
       <c r="E4" s="5">
-        <v>1.292824</v>
+        <v>3.0839580183353799</v>
       </c>
       <c r="F4" s="5">
-        <v>-2.9999999999999997E-4</v>
+        <v>4.2851594365719299</v>
       </c>
       <c r="G4" s="5">
-        <v>1.0355289999999999</v>
+        <v>4.4624847041537397</v>
       </c>
       <c r="H4" s="5">
-        <v>1.4085289999999999</v>
+        <v>5.7312521251734303</v>
       </c>
       <c r="I4" s="5">
-        <v>0.88556299999999999</v>
+        <v>3.1950583976139701</v>
       </c>
       <c r="J4" s="5">
-        <v>1.8968430000000001</v>
+        <v>5.0059327889525296</v>
       </c>
       <c r="K4" s="5">
-        <v>-0.40218100000000001</v>
+        <v>5.1805691542876096</v>
       </c>
       <c r="L4" s="5">
-        <v>-1.0830660000000001</v>
+        <v>-2.45693872700972</v>
       </c>
       <c r="M4" s="5">
-        <v>1.012424</v>
+        <v>1.15148206153599</v>
       </c>
       <c r="N4" s="5">
-        <v>1.0475730000000001</v>
+        <v>1.1707316263136101</v>
       </c>
       <c r="O4" s="5">
-        <v>0.96531500000000003</v>
+        <v>0.98312006405156005</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43553</v>
+        <v>43524</v>
       </c>
       <c r="B5" s="3">
-        <v>5.637543</v>
+        <v>-1.49478977764203</v>
       </c>
       <c r="C5" s="3">
-        <v>4.6157409999999999</v>
+        <v>-0.50236139527593504</v>
       </c>
       <c r="D5" s="3">
-        <v>3.0231050000000002</v>
+        <v>-0.34010601176812499</v>
       </c>
       <c r="E5" s="3">
-        <v>4.1880509999999997</v>
+        <v>1.32536857885841</v>
       </c>
       <c r="F5" s="3">
-        <v>3.5411769999999998</v>
+        <v>-0.148517407370444</v>
       </c>
       <c r="G5" s="3">
-        <v>3.0728040000000001</v>
+        <v>1.1143662062322599</v>
       </c>
       <c r="H5" s="3">
-        <v>1.4516530000000001</v>
+        <v>1.45983339934514</v>
       </c>
       <c r="I5" s="3">
-        <v>3.1127570000000002</v>
+        <v>0.98034939041188496</v>
       </c>
       <c r="J5" s="3">
-        <v>5.1361869999999996</v>
+        <v>1.6300575594397799</v>
       </c>
       <c r="K5" s="3">
-        <v>2.2151749999999999</v>
+        <v>-0.38709414940310899</v>
       </c>
       <c r="L5" s="3">
-        <v>3.4223680000000001</v>
+        <v>-1.1076956282389201</v>
       </c>
       <c r="M5" s="3">
-        <v>1.0694999999999999</v>
+        <v>1.13426982538877</v>
       </c>
       <c r="N5" s="3">
-        <v>1.070778</v>
+        <v>1.1661997926829399</v>
       </c>
       <c r="O5" s="3">
-        <v>0.99835200000000002</v>
+        <v>0.97223008608172101</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43585</v>
+        <v>43553</v>
       </c>
       <c r="B6" s="5">
-        <v>-9.3772669999999998</v>
+        <v>5.6594826399426399</v>
       </c>
       <c r="C6" s="5">
-        <v>-6.1736630000000003</v>
+        <v>3.9975829416594699</v>
       </c>
       <c r="D6" s="5">
-        <v>-7.13239</v>
+        <v>3.7667384537193702</v>
       </c>
       <c r="E6" s="5">
-        <v>-6.0851309999999996</v>
+        <v>3.81439552696345</v>
       </c>
       <c r="F6" s="5">
-        <v>-6.8123769999999997</v>
+        <v>3.7524851604877698</v>
       </c>
       <c r="G6" s="5">
-        <v>-7.4319050000000004</v>
+        <v>2.4444861733293499</v>
       </c>
       <c r="H6" s="5">
-        <v>-6.9441940000000004</v>
+        <v>2.0366741597650102</v>
       </c>
       <c r="I6" s="5">
-        <v>-6.4814759999999998</v>
+        <v>2.9135277451614501</v>
       </c>
       <c r="J6" s="5">
-        <v>-5.455082</v>
+        <v>5.1444037867652099</v>
       </c>
       <c r="K6" s="5">
-        <v>-7.4135229999999996</v>
+        <v>2.5421285806133298</v>
       </c>
       <c r="L6" s="5">
-        <v>-1.9637439999999999</v>
+        <v>3.1173540593293101</v>
       </c>
       <c r="M6" s="5">
-        <v>0.96921000000000002</v>
+        <v>1.1984636292467601</v>
       </c>
       <c r="N6" s="5">
-        <v>0.99139600000000005</v>
+        <v>1.1958460909197901</v>
       </c>
       <c r="O6" s="5">
-        <v>0.97874700000000003</v>
+        <v>1.00253794013621</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="B7" s="3">
-        <v>7.6452859999999996</v>
+        <v>-9.75448815130623</v>
       </c>
       <c r="C7" s="3">
-        <v>6.995101</v>
+        <v>-5.9662004334726602</v>
       </c>
       <c r="D7" s="3">
-        <v>7.3459490000000001</v>
+        <v>-7.1848706755541896</v>
       </c>
       <c r="E7" s="3">
-        <v>6.7893030000000003</v>
+        <v>-5.9391962321498397</v>
       </c>
       <c r="F7" s="3">
-        <v>7.0718399999999999</v>
+        <v>-6.4942434943213403</v>
       </c>
       <c r="G7" s="3">
-        <v>5.800834</v>
+        <v>-7.5873809841372797</v>
       </c>
       <c r="H7" s="3">
-        <v>8.0977999999999994</v>
+        <v>-6.9237031130234401</v>
       </c>
       <c r="I7" s="3">
-        <v>8.0543519999999997</v>
+        <v>-6.5022427689303903</v>
       </c>
       <c r="J7" s="3">
-        <v>7.4432080000000003</v>
+        <v>-5.7491414936396898</v>
       </c>
       <c r="K7" s="3">
-        <v>5.2456909999999999</v>
+        <v>-7.2655231387177501</v>
       </c>
       <c r="L7" s="3">
-        <v>2.3995950000000001</v>
+        <v>-2.4889650125884701</v>
       </c>
       <c r="M7" s="3">
-        <v>1.043309</v>
+        <v>1.08155963653417</v>
       </c>
       <c r="N7" s="3">
-        <v>1.043401</v>
+        <v>1.10896161648056</v>
       </c>
       <c r="O7" s="3">
-        <v>1.0022329999999999</v>
+        <v>0.97758512156829502</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43644</v>
+        <v>43616</v>
       </c>
       <c r="B8" s="5">
-        <v>0.18026400000000001</v>
+        <v>7.7336473624214799</v>
       </c>
       <c r="C8" s="5">
-        <v>1.4506490000000001</v>
+        <v>6.7713618617912399</v>
       </c>
       <c r="D8" s="5">
-        <v>1.8125929999999999</v>
+        <v>7.3779324405763704</v>
       </c>
       <c r="E8" s="5">
-        <v>1.281155</v>
+        <v>6.8786214309299201</v>
       </c>
       <c r="F8" s="5">
-        <v>-0.255052</v>
+        <v>7.2357797859648301</v>
       </c>
       <c r="G8" s="5">
-        <v>-0.178701</v>
+        <v>5.9086211775018196</v>
       </c>
       <c r="H8" s="5">
-        <v>1.4083920000000001</v>
+        <v>8.0182746393430708</v>
       </c>
       <c r="I8" s="5">
-        <v>1.260167</v>
+        <v>7.8421567703758299</v>
       </c>
       <c r="J8" s="5">
-        <v>1.5302389999999999</v>
+        <v>7.58720910424897</v>
       </c>
       <c r="K8" s="5">
-        <v>2.127894</v>
+        <v>5.2495097152479904</v>
       </c>
       <c r="L8" s="5">
-        <v>-1.94763</v>
+        <v>2.4841376471734802</v>
       </c>
       <c r="M8" s="5">
-        <v>1.0451889999999999</v>
+        <v>1.1652036448380101</v>
       </c>
       <c r="N8" s="5">
-        <v>1.065604</v>
+        <v>1.1671766642760699</v>
       </c>
       <c r="O8" s="5">
-        <v>0.98271299999999995</v>
+        <v>1.0018696816063399</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>43677</v>
+        <v>43644</v>
       </c>
       <c r="B9" s="3">
-        <v>-7.3395830000000002</v>
+        <v>0.339113539498271</v>
       </c>
       <c r="C9" s="3">
-        <v>-5.3363490000000002</v>
+        <v>1.31745728611202</v>
       </c>
       <c r="D9" s="3">
-        <v>-4.8239479999999997</v>
+        <v>1.7304360841633499</v>
       </c>
       <c r="E9" s="3">
-        <v>-2.6923919999999999</v>
+        <v>1.20003671825137</v>
       </c>
       <c r="F9" s="3">
-        <v>-3.7112099999999999</v>
+        <v>-0.143480295220003</v>
       </c>
       <c r="G9" s="3">
-        <v>-4.7451949999999998</v>
+        <v>-0.35101192370524498</v>
       </c>
       <c r="H9" s="3">
-        <v>-2.672863</v>
+        <v>1.4381202241248101</v>
       </c>
       <c r="I9" s="3">
-        <v>-3.0547219999999999</v>
+        <v>1.3553836764840099</v>
       </c>
       <c r="J9" s="3">
-        <v>-2.5148069999999998</v>
+        <v>1.5060686208319001</v>
       </c>
       <c r="K9" s="3">
-        <v>-2.4236260000000001</v>
+        <v>2.1658977349755402</v>
       </c>
       <c r="L9" s="3">
-        <v>-4.9159569999999997</v>
+        <v>-1.8267841954772699</v>
       </c>
       <c r="M9" s="3">
-        <v>0.96847700000000003</v>
+        <v>1.1691550081603801</v>
       </c>
       <c r="N9" s="3">
-        <v>1.0397780000000001</v>
+        <v>1.1924565172107899</v>
       </c>
       <c r="O9" s="3">
-        <v>0.93440299999999998</v>
+        <v>0.98356768460347599</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43707</v>
+        <v>43677</v>
       </c>
       <c r="B10" s="5">
-        <v>5.9293620000000002</v>
+        <v>-7.6641068787193101</v>
       </c>
       <c r="C10" s="5">
-        <v>4.8064080000000002</v>
+        <v>-4.8151949117672004</v>
       </c>
       <c r="D10" s="5">
-        <v>3.3248679999999999</v>
+        <v>-4.3844362166781998</v>
       </c>
       <c r="E10" s="5">
-        <v>3.2294909999999999</v>
+        <v>-3.3563877672181799</v>
       </c>
       <c r="F10" s="5">
-        <v>2.3281689999999999</v>
+        <v>-3.7657344087325102</v>
       </c>
       <c r="G10" s="5">
-        <v>2.5982769999999999</v>
+        <v>-4.5393404433455</v>
       </c>
       <c r="H10" s="5">
-        <v>1.102454</v>
+        <v>-2.0804352036576002</v>
       </c>
       <c r="I10" s="5">
-        <v>1.6865079999999999</v>
+        <v>-3.2680096119979201</v>
       </c>
       <c r="J10" s="5">
-        <v>0.195494</v>
+        <v>-2.97507570389303</v>
       </c>
       <c r="K10" s="5">
-        <v>-0.84561699999999995</v>
+        <v>-2.2855094553237101</v>
       </c>
       <c r="L10" s="5">
-        <v>6.7749800000000002</v>
+        <v>-5.3785974233956004</v>
       </c>
       <c r="M10" s="5">
-        <v>1.025901</v>
+        <v>1.07954971875707</v>
       </c>
       <c r="N10" s="5">
-        <v>1.030985</v>
+        <v>1.16520281075932</v>
       </c>
       <c r="O10" s="5">
-        <v>0.99770899999999996</v>
+        <v>0.93066553846204203</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>43738</v>
+        <v>43707</v>
       </c>
       <c r="B11" s="3">
-        <v>-2.2053180000000001</v>
+        <v>5.9752389351988704</v>
       </c>
       <c r="C11" s="3">
-        <v>0.863097</v>
+        <v>4.4687470792849098</v>
       </c>
       <c r="D11" s="3">
-        <v>0.70014500000000002</v>
+        <v>3.6032765701751099</v>
       </c>
       <c r="E11" s="3">
-        <v>0.75150600000000001</v>
+        <v>3.1503529950817599</v>
       </c>
       <c r="F11" s="3">
-        <v>0.79404699999999995</v>
+        <v>2.5491271552605599</v>
       </c>
       <c r="G11" s="3">
-        <v>1.113585</v>
+        <v>2.2754799875649501</v>
       </c>
       <c r="H11" s="3">
-        <v>0.38906000000000002</v>
+        <v>1.23994745102125</v>
       </c>
       <c r="I11" s="3">
-        <v>2.0213019999999999</v>
+        <v>1.36454725902401</v>
       </c>
       <c r="J11" s="3">
-        <v>1.9827939999999999</v>
+        <v>0.23390882927500101</v>
       </c>
       <c r="K11" s="3">
-        <v>0.27205400000000002</v>
+        <v>-0.62812067746282296</v>
       </c>
       <c r="L11" s="3">
-        <v>-2.4773719999999999</v>
+        <v>6.6033596126616896</v>
       </c>
       <c r="M11" s="3">
-        <v>1.003277</v>
+        <v>1.1440553938770699</v>
       </c>
       <c r="N11" s="3">
-        <v>1.03379</v>
+        <v>1.15788393097056</v>
       </c>
       <c r="O11" s="3">
-        <v>0.97299199999999997</v>
+        <v>0.99212073075780505</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="B12" s="5">
-        <v>2.9076919999999999</v>
+        <v>-2.05477197493552</v>
       </c>
       <c r="C12" s="5">
-        <v>3.752624</v>
+        <v>0.81163218256280001</v>
       </c>
       <c r="D12" s="5">
-        <v>4.1005900000000004</v>
+        <v>0.67049575358797897</v>
       </c>
       <c r="E12" s="5">
-        <v>4.1047529999999997</v>
+        <v>0.69178756369957295</v>
       </c>
       <c r="F12" s="5">
-        <v>1.9272320000000001</v>
+        <v>0.33664225446233098</v>
       </c>
       <c r="G12" s="5">
-        <v>3.8471920000000002</v>
+        <v>1.66120643276868</v>
       </c>
       <c r="H12" s="5">
-        <v>3.8950360000000002</v>
+        <v>0.46064861103322102</v>
       </c>
       <c r="I12" s="5">
-        <v>3.2402959999999998</v>
+        <v>2.2373028972294602</v>
       </c>
       <c r="J12" s="5">
-        <v>4.224672</v>
+        <v>1.6218251919997799</v>
       </c>
       <c r="K12" s="5">
-        <v>3.5093709999999998</v>
+        <v>0.38351170639849202</v>
       </c>
       <c r="L12" s="5">
-        <v>-0.60167899999999996</v>
+        <v>-2.4382836813340099</v>
       </c>
       <c r="M12" s="5">
-        <v>1.032449</v>
+        <v>1.12054766426595</v>
       </c>
       <c r="N12" s="5">
-        <v>1.0700700000000001</v>
+        <v>1.1623245513923399</v>
       </c>
       <c r="O12" s="5">
-        <v>0.96713800000000005</v>
+        <v>0.96793001288060598</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>43798</v>
+        <v>43769</v>
       </c>
       <c r="B13" s="3">
-        <v>8.6724709999999998</v>
+        <v>2.7423974271636302</v>
       </c>
       <c r="C13" s="3">
-        <v>3.3628360000000002</v>
+        <v>3.6231646695539799</v>
       </c>
       <c r="D13" s="3">
-        <v>5.4384980000000001</v>
+        <v>3.9918336152964802</v>
       </c>
       <c r="E13" s="3">
-        <v>2.5444460000000002</v>
+        <v>4.15293330555774</v>
       </c>
       <c r="F13" s="3">
-        <v>2.3780670000000002</v>
+        <v>2.0830324459354799</v>
       </c>
       <c r="G13" s="3">
-        <v>2.493363</v>
+        <v>4.2237167986583897</v>
       </c>
       <c r="H13" s="3">
-        <v>2.0444900000000001</v>
+        <v>3.6232540015439798</v>
       </c>
       <c r="I13" s="3">
-        <v>1.9665790000000001</v>
+        <v>3.2198010478829802</v>
       </c>
       <c r="J13" s="3">
-        <v>2.1201180000000002</v>
+        <v>4.1292517942092504</v>
       </c>
       <c r="K13" s="3">
-        <v>-0.17013500000000001</v>
+        <v>3.5429016504080701</v>
       </c>
       <c r="L13" s="3">
-        <v>8.842606</v>
+        <v>-0.80050422324444204</v>
       </c>
       <c r="M13" s="3">
-        <v>1.121988</v>
+        <v>1.1512775345809201</v>
       </c>
       <c r="N13" s="3">
-        <v>1.068249</v>
+        <v>1.2035045671067199</v>
       </c>
       <c r="O13" s="3">
-        <v>1.0526580000000001</v>
+        <v>0.96018169224944605</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
+        <v>43798</v>
+      </c>
+      <c r="B14" s="5">
+        <v>8.7021725278845299</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3.2622108071265998</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5.4596312415058703</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2.4989410267834899</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2.9869079705521102</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2.0222882573437002</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.83223218607746</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2.12641311915996</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1.9332265188534301</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-5.0136026937361196E-3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>8.7071861305782701</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1.25146369191493</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1.2034442281693201</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1.0437864993853401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>43830</v>
       </c>
-      <c r="B14" s="5">
-        <v>-6.0630620000000004</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-2.8709099999999999</v>
-      </c>
-      <c r="D14" s="5">
-        <v>-2.3982579999999998</v>
-      </c>
-      <c r="E14" s="5">
-        <v>-3.2801179999999999</v>
-      </c>
-      <c r="F14" s="5">
-        <v>-0.87720900000000002</v>
-      </c>
-      <c r="G14" s="5">
-        <v>-2.6811560000000001</v>
-      </c>
-      <c r="H14" s="5">
-        <v>-0.75218600000000002</v>
-      </c>
-      <c r="I14" s="5">
-        <v>-0.55235000000000001</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.21954699999999999</v>
-      </c>
-      <c r="K14" s="5">
-        <v>2.8857149999999998</v>
-      </c>
-      <c r="L14" s="5">
-        <v>-8.9487769999999998</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1.0539609999999999</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1.0990759999999999</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0.95845800000000003</v>
+      <c r="B15">
+        <v>-5.5799810192961896</v>
+      </c>
+      <c r="C15">
+        <v>-3.0374269876400399</v>
+      </c>
+      <c r="D15">
+        <v>-2.4603257714252802</v>
+      </c>
+      <c r="E15">
+        <v>-2.88476298894293</v>
+      </c>
+      <c r="F15">
+        <v>-1.3119201923002699</v>
+      </c>
+      <c r="G15">
+        <v>-2.23269078028581</v>
+      </c>
+      <c r="H15">
+        <v>-0.97060851599690601</v>
+      </c>
+      <c r="I15">
+        <v>-0.86174748740430096</v>
+      </c>
+      <c r="J15">
+        <v>0.48809596052514398</v>
+      </c>
+      <c r="K15">
+        <v>2.60507323286381</v>
+      </c>
+      <c r="L15">
+        <v>-8.1850542521600094</v>
+      </c>
+      <c r="M15">
+        <v>1.1816322554426899</v>
+      </c>
+      <c r="N15">
+        <v>1.2347948316298001</v>
+      </c>
+      <c r="O15">
+        <v>0.95835200813392896</v>
       </c>
     </row>
   </sheetData>
